--- a/datenRF4/SFU/i = 47,75 - Abtriebswelle 14 - Geber AV Y2/L2_47,75_14_AVY2.xlsx
+++ b/datenRF4/SFU/i = 47,75 - Abtriebswelle 14 - Geber AV Y2/L2_47,75_14_AVY2.xlsx
@@ -1,51 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 47^J75 - Abtriebswelle 14 - Geber AV Y2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{985E4ED3-4D0B-4798-B09B-ED82A540DD63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{65B39A74-68C9-45B9-9A09-B5CC9739AB17}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24307"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_5F4E80F8DE9D64C85B2E211345D116D27C82ABAC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="113">
   <si>
+    <t>Produktinformationen</t>
+  </si>
+  <si>
+    <t>Prozessinformationen</t>
+  </si>
+  <si>
+    <t>Ressourceninformationen</t>
+  </si>
+  <si>
+    <t>Benennung:</t>
+  </si>
+  <si>
+    <t>FU314SA2</t>
+  </si>
+  <si>
+    <t>NR.:</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Stufe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menge </t>
+  </si>
+  <si>
+    <t>[ME]</t>
+  </si>
+  <si>
+    <t>Bennung</t>
+  </si>
+  <si>
+    <t>Sachnummer</t>
+  </si>
+  <si>
+    <t>Formenschlüssel</t>
+  </si>
+  <si>
     <t>Sequenz</t>
   </si>
   <si>
+    <t>Variante</t>
+  </si>
+  <si>
     <t>Bildquelle</t>
   </si>
   <si>
+    <t>Videoquelle</t>
+  </si>
+  <si>
     <t>Bildschirmtext</t>
   </si>
   <si>
-    <t>Synchronmotor entnehmen</t>
-  </si>
-  <si>
-    <t>Asynchronmotor entnehmen</t>
-  </si>
-  <si>
-    <t>Der zweite Montageschritt wurde erfolgreich durchgeführt
-Bitte Bauteil zum nächsten Tisch mitnehmen</t>
+    <t>Asset Type</t>
+  </si>
+  <si>
+    <t>Pick-By-Light Nr</t>
+  </si>
+  <si>
+    <t>Torque min (Nm)</t>
+  </si>
+  <si>
+    <t>Torque max (Nm)</t>
+  </si>
+  <si>
+    <t>Torque target (Nm)</t>
+  </si>
+  <si>
+    <t>Name in CVI</t>
+  </si>
+  <si>
+    <t>IP-Adresse</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>0_g2.jpg</t>
   </si>
   <si>
     <t>Hallo Werker, willkommen zur Montagestation 2
 Scanne zum Starten bitte den QR-Code auf dem Produktionsauftrag</t>
   </si>
   <si>
-    <t>Außensechskant-Bit entnehmen</t>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Desoutter Micro E/A-Box
+Tisch 3 (rechte Box)</t>
+  </si>
+  <si>
+    <t>192.168.125.23</t>
+  </si>
+  <si>
+    <t>GM 3. Motor: A</t>
+  </si>
+  <si>
+    <t>1a_g2.jpg</t>
+  </si>
+  <si>
+    <t>Asynchronmotor entnehmen</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>BG Synchronmotor 2</t>
+  </si>
+  <si>
+    <t>BG 009</t>
+  </si>
+  <si>
+    <t>GM 3. Motor: S</t>
+  </si>
+  <si>
+    <t>1b_g2.jpg</t>
+  </si>
+  <si>
+    <t>Synchronmotor entnehmen</t>
+  </si>
+  <si>
+    <t>Pick-By-Light</t>
+  </si>
+  <si>
+    <t>Desoutter Micro E/A-Box 
+Tisch 2 (mittlere Box)</t>
+  </si>
+  <si>
+    <t>192.168.125.22</t>
+  </si>
+  <si>
+    <t>BG Synchrononmotor DFY 90</t>
+  </si>
+  <si>
+    <t>BG 010</t>
+  </si>
+  <si>
+    <t>Synchronmotor  DFY 90</t>
+  </si>
+  <si>
+    <t>BT 009</t>
+  </si>
+  <si>
+    <t>GM 4. Motor + Gehäuse: AFL</t>
+  </si>
+  <si>
+    <t>AS auf FL 
+ausrichten.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">1) Asynchronmotor in die Vorrichtung setzen
@@ -54,69 +185,24 @@
 </t>
   </si>
   <si>
+    <t>GM 4. Motor + Gehäuse: AFU</t>
+  </si>
+  <si>
+    <t>AS auf FU 
+ausrichten.mp4</t>
+  </si>
+  <si>
     <t xml:space="preserve">1) Asynchronmotor in die Vorrichtung setzen
 2) Fußgehäuse auf Asynchronmotor ausrichten  
 3) 2 Sechskantschrauben M4x10 entnehmen
 </t>
   </si>
   <si>
-    <t>1) Synchronmotor in die Vorrichtung setzen
-2) Fußgehäuse auf Synchronmotor ausrichten 
-3) 2 Sechskantschrauben M4x10 entnehmen</t>
-  </si>
-  <si>
-    <t>1) Schrauben rechts und links einfädeln
-2) Maulschlüssel entnehmen</t>
-  </si>
-  <si>
-    <t>1) Schrauben mit Maulschlüssel festziehen
-2) Maulschlüssel zurücklegen</t>
-  </si>
-  <si>
-    <t>1) Bauteil auf der Vorrichtung positionieren
-2) 6 Zylinderkopfschrauben M4x6 entnehmen</t>
-  </si>
-  <si>
-    <t>1) Schrauben einfädeln 
-2) Winkelschrauber links aus der Halterung nehmen</t>
-  </si>
-  <si>
-    <t>1) Außensechskant-Bit vom Winkelschrauber lösen 
-2) Innensechskant-Bit in Winkelschrauber einsetzen
-3) Außensechskant-Bit zurücklegen</t>
-  </si>
-  <si>
-    <t>1) Winkelschrauber zurücklegen
-2) Klemmkasten entnehmen</t>
-  </si>
-  <si>
-    <t>1) Klemmkasten auf dem Motor positionieren (Orientierung beachten)
-2) 4 Sechskantschrauben M4x25 entnehmen</t>
-  </si>
-  <si>
-    <t>1) Schrauben einfädeln
-2) Winkelschrauber links aus der Halterung nehmen</t>
-  </si>
-  <si>
-    <t>1) Innensechskant-Bit vom Winkelschrauber lösen
-2) Außensechskant-Bit in Winkelschrauber einsetzen
-3) Innensechskant-Bit zurücklegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Winkelschrauber zurücklegen
-2) Scheibenbremse entnehmen </t>
-  </si>
-  <si>
-    <t>1) Winkelschrauber zurücklegen
-2) Fremdlüfter entnehmen</t>
-  </si>
-  <si>
-    <t>1) Scheibenbremse per Hand mit dem Asynchronmotor verschrauben
-2) Zum Fortfahren mit gelbem Taster bestätigen</t>
-  </si>
-  <si>
-    <t>1) Fremdlüfter per Hand mit dem Asynchronmotor verschrauben
-2) Zum Fortfahren mit gelbem Taster bestätigen</t>
+    <t>GM 4. Motor + Gehäuse: SFL</t>
+  </si>
+  <si>
+    <t>S auf FL
+ausrichten.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">1) Synchronmotor in die Vorrichtung setzen
@@ -125,117 +211,79 @@
 </t>
   </si>
   <si>
+    <t>BG Getriebe Fußgehäuse 3</t>
+  </si>
+  <si>
+    <t>BG 013</t>
+  </si>
+  <si>
+    <t>GM 4. Motor + Gehäuse: SFU</t>
+  </si>
+  <si>
+    <t>S auf FU 
+ausrichten.mp4</t>
+  </si>
+  <si>
+    <t>1) Synchronmotor in die Vorrichtung setzen
+2) Fußgehäuse auf Synchronmotor ausrichten 
+3) 2 Sechskantschrauben M4x10 entnehmen</t>
+  </si>
+  <si>
+    <t>Sechskantschrauben
+M4x10</t>
+  </si>
+  <si>
+    <t>S 003</t>
+  </si>
+  <si>
+    <t>6a_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Schrauben rechts und links einfädeln
+2) Maulschlüssel entnehmen</t>
+  </si>
+  <si>
+    <t>6b_g2.jpg</t>
+  </si>
+  <si>
+    <t>7a_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Schrauben mit Maulschlüssel festziehen
+2) Maulschlüssel zurücklegen</t>
+  </si>
+  <si>
+    <t>7b_g2.jpg</t>
+  </si>
+  <si>
+    <t>7c_g2.jpg</t>
+  </si>
+  <si>
+    <t>7d_g2.jpg</t>
+  </si>
+  <si>
+    <t>8a_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Bauteil auf der Vorrichtung positionieren
+2) 6 Zylinderkopfschrauben M4x6 entnehmen</t>
+  </si>
+  <si>
+    <t>8b_g2.jpg</t>
+  </si>
+  <si>
+    <t>9_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Schrauben einfädeln 
+2) Winkelschrauber links aus der Halterung nehmen</t>
+  </si>
+  <si>
+    <t>10_g2.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">1) Innensechskant-Bit entnehmen
 </t>
-  </si>
-  <si>
-    <t>1) Zylinderkopfschrauben an angezeigten Positionen mit Winkelschrauber festziehen</t>
-  </si>
-  <si>
-    <t>1) An angezeigten Positionen Sechskantschrauben mit Winkelschrauber festziehen</t>
-  </si>
-  <si>
-    <t>1a_g2.jpg</t>
-  </si>
-  <si>
-    <t>1b_g2.jpg</t>
-  </si>
-  <si>
-    <t>6a_g2.jpg</t>
-  </si>
-  <si>
-    <t>6b_g2.jpg</t>
-  </si>
-  <si>
-    <t>7a_g2.jpg</t>
-  </si>
-  <si>
-    <t>7b_g2.jpg</t>
-  </si>
-  <si>
-    <t>7c_g2.jpg</t>
-  </si>
-  <si>
-    <t>7d_g2.jpg</t>
-  </si>
-  <si>
-    <t>8a_g2.jpg</t>
-  </si>
-  <si>
-    <t>8b_g2.jpg</t>
-  </si>
-  <si>
-    <t>9_g2.jpg</t>
-  </si>
-  <si>
-    <t>10_g2.jpg</t>
-  </si>
-  <si>
-    <t>14a_g2.jpg</t>
-  </si>
-  <si>
-    <t>14b_g2.jpg</t>
-  </si>
-  <si>
-    <t>15_g2.jpg</t>
-  </si>
-  <si>
-    <t>16_g2.jpg</t>
-  </si>
-  <si>
-    <t>17_g2.jpg</t>
-  </si>
-  <si>
-    <t>18_g2.jpg</t>
-  </si>
-  <si>
-    <t>19a_g2.jpg</t>
-  </si>
-  <si>
-    <t>19b_g2.jpg</t>
-  </si>
-  <si>
-    <t>20a_g2.jpg</t>
-  </si>
-  <si>
-    <t>20b_g2.jpg</t>
-  </si>
-  <si>
-    <t>20c_g2.jpg</t>
-  </si>
-  <si>
-    <t>20d_g2.jpg</t>
-  </si>
-  <si>
-    <t>0_g2.jpg</t>
-  </si>
-  <si>
-    <t>12_g2.jpg</t>
-  </si>
-  <si>
-    <t>13_g2.jpg</t>
-  </si>
-  <si>
-    <t>100_g2.png</t>
-  </si>
-  <si>
-    <t>Videoquelle</t>
-  </si>
-  <si>
-    <t>AS auf FL 
-ausrichten.mp4</t>
-  </si>
-  <si>
-    <t>AS auf FU 
-ausrichten.mp4</t>
-  </si>
-  <si>
-    <t>S auf FL
-ausrichten.mp4</t>
-  </si>
-  <si>
-    <t>S auf FU 
-ausrichten.mp4</t>
   </si>
   <si>
     <t>Wechsel 
@@ -243,160 +291,118 @@
 Winkelschrauber.mp4</t>
   </si>
   <si>
-    <t>Benennung:</t>
-  </si>
-  <si>
-    <t>NR.:</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Stufe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menge </t>
-  </si>
-  <si>
-    <t>[ME]</t>
-  </si>
-  <si>
-    <t>Bennung</t>
-  </si>
-  <si>
-    <t>Sachnummer</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>BG Synchronmotor 2</t>
-  </si>
-  <si>
-    <t>BG 009</t>
-  </si>
-  <si>
-    <t>BG Synchrononmotor DFY 90</t>
-  </si>
-  <si>
-    <t>BG 010</t>
-  </si>
-  <si>
-    <t>Synchronmotor  DFY 90</t>
-  </si>
-  <si>
-    <t>BT 009</t>
-  </si>
-  <si>
-    <t>Sechskantschrauben
-M4x10</t>
-  </si>
-  <si>
-    <t>S 003</t>
-  </si>
-  <si>
-    <t>Asset Type</t>
-  </si>
-  <si>
-    <t>Pick-By-Light Nr</t>
-  </si>
-  <si>
-    <t>Name in CVI</t>
-  </si>
-  <si>
-    <t>IP-Adresse</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>Desoutter Micro E/A-Box
-Tisch 3 (rechte Box)</t>
-  </si>
-  <si>
-    <t>192.168.125.23</t>
-  </si>
-  <si>
-    <t>Pick-By-Light</t>
-  </si>
-  <si>
-    <t>Desoutter Micro E/A-Box 
-Tisch 2 (mittlere Box)</t>
-  </si>
-  <si>
-    <t>192.168.125.22</t>
-  </si>
-  <si>
-    <t>BG Getriebe Fußgehäuse 3</t>
-  </si>
-  <si>
-    <t>BG 013</t>
-  </si>
-  <si>
-    <t>FU314SA2</t>
-  </si>
-  <si>
-    <t>Variante</t>
-  </si>
-  <si>
-    <t>GM 3. Motor: A</t>
-  </si>
-  <si>
-    <t>GM 3. Motor: S</t>
-  </si>
-  <si>
-    <t>GM 4. Motor + Gehäuse: AFL</t>
-  </si>
-  <si>
-    <t>GM 4. Motor + Gehäuse: AFU</t>
-  </si>
-  <si>
-    <t>GM 4. Motor + Gehäuse: SFL</t>
-  </si>
-  <si>
-    <t>GM 4. Motor + Gehäuse: SFU</t>
+    <t>1) Außensechskant-Bit vom Winkelschrauber lösen 
+2) Innensechskant-Bit in Winkelschrauber einsetzen
+3) Außensechskant-Bit zurücklegen</t>
+  </si>
+  <si>
+    <t>12_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Zylinderkopfschrauben an angezeigten Positionen mit Winkelschrauber festziehen</t>
+  </si>
+  <si>
+    <t>13_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Winkelschrauber zurücklegen
+2) Klemmkasten entnehmen</t>
+  </si>
+  <si>
+    <t>14a_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Klemmkasten auf dem Motor positionieren (Orientierung beachten)
+2) 4 Sechskantschrauben M4x25 entnehmen</t>
+  </si>
+  <si>
+    <t>14b_g2.jpg</t>
+  </si>
+  <si>
+    <t>15_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Schrauben einfädeln
+2) Winkelschrauber links aus der Halterung nehmen</t>
+  </si>
+  <si>
+    <t>16_g2.jpg</t>
+  </si>
+  <si>
+    <t>Außensechskant-Bit entnehmen</t>
+  </si>
+  <si>
+    <t>17_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Innensechskant-Bit vom Winkelschrauber lösen
+2) Außensechskant-Bit in Winkelschrauber einsetzen
+3) Innensechskant-Bit zurücklegen</t>
+  </si>
+  <si>
+    <t>18_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) An angezeigten Positionen Sechskantschrauben mit Winkelschrauber festziehen</t>
   </si>
   <si>
     <t>GM 5. Zusatz: Scheibenbremse</t>
   </si>
   <si>
+    <t>19a_g2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Winkelschrauber zurücklegen
+2) Scheibenbremse entnehmen </t>
+  </si>
+  <si>
     <t>GM 5. Zusatz: Fremdlüfter</t>
   </si>
   <si>
+    <t>19b_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Winkelschrauber zurücklegen
+2) Fremdlüfter entnehmen</t>
+  </si>
+  <si>
     <t>GM 6. Motor + Gehäuse + Zusatz: AFUS</t>
   </si>
   <si>
+    <t>20a_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Scheibenbremse per Hand mit dem Asynchronmotor verschrauben
+2) Zum Fortfahren mit gelbem Taster bestätigen</t>
+  </si>
+  <si>
     <t>GM 6. Motor + Gehäuse + Zusatz: AFUF</t>
   </si>
   <si>
+    <t>20b_g2.jpg</t>
+  </si>
+  <si>
+    <t>1) Fremdlüfter per Hand mit dem Asynchronmotor verschrauben
+2) Zum Fortfahren mit gelbem Taster bestätigen</t>
+  </si>
+  <si>
     <t>GM 6. Motor + Gehäuse + Zusatz: AFLS</t>
   </si>
   <si>
+    <t>20c_g2.jpg</t>
+  </si>
+  <si>
     <t>GM 6. Motor + Gehäuse + Zusatz: AFLF</t>
   </si>
   <si>
-    <t>Prozessinformationen</t>
-  </si>
-  <si>
-    <t>Produktinformationen</t>
-  </si>
-  <si>
-    <t>Ressourceninformationen</t>
-  </si>
-  <si>
-    <t>Torque min (Nm)</t>
-  </si>
-  <si>
-    <t>Torque max (Nm)</t>
-  </si>
-  <si>
-    <t>Torque target (Nm)</t>
-  </si>
-  <si>
-    <t>Formenschlüssel</t>
+    <t>20d_g2.jpg</t>
+  </si>
+  <si>
+    <t>100_g2.png</t>
+  </si>
+  <si>
+    <t>Der zweite Montageschritt wurde erfolgreich durchgeführt
+Bitte Bauteil zum nächsten Tisch mitnehmen</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -587,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -634,6 +640,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,49 +719,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -767,7 +779,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -819,7 +831,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1025,12 +1037,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
@@ -1049,47 +1061,47 @@
     <col min="19" max="19" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="33"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="35"/>
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="21">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1">
+      <c r="A2" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="64"/>
       <c r="G2" s="31"/>
       <c r="H2" s="2"/>
       <c r="I2" s="10"/>
@@ -1105,70 +1117,70 @@
       <c r="S2" s="11"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>112</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="43.5">
+      <c r="A4" s="41"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1180,29 +1192,29 @@
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="14" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="15" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="17" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:20" ht="15" thickBot="1">
+      <c r="A5" s="41"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1213,14 +1225,14 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="13" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
@@ -1231,41 +1243,41 @@
       <c r="S5" s="13"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+    <row r="6" spans="1:20" ht="29.1">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6" s="53">
-        <v>1</v>
-      </c>
-      <c r="C6" s="50">
-        <v>1</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="43"/>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="C6" s="40">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="33"/>
       <c r="H6" s="12">
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="13" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="N6" s="16">
         <v>3</v>
@@ -1274,35 +1286,35 @@
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="17" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="T6" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51">
+    <row r="7" spans="1:20" ht="15" thickBot="1">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="45">
         <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="44"/>
+        <v>43</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="34"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
       <c r="J7" s="14"/>
@@ -1317,24 +1329,26 @@
       <c r="S7" s="13"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57">
-        <v>1</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59">
-        <v>1</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="45">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
+      <c r="A8" s="47">
+        <v>1</v>
+      </c>
+      <c r="B8" s="60">
+        <v>3</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="35">
         <v>23355</v>
       </c>
       <c r="H8" s="12"/>
@@ -1351,8 +1365,8 @@
       <c r="S8" s="13"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:20" ht="57.95">
+      <c r="A9" s="41"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1363,14 +1377,14 @@
         <v>2</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -1381,8 +1395,8 @@
       <c r="S9" s="13"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:20" ht="57.95">
+      <c r="A10" s="41"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1393,14 +1407,14 @@
         <v>3</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -1411,8 +1425,8 @@
       <c r="S10" s="13"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+    <row r="11" spans="1:20" ht="58.5" thickBot="1">
+      <c r="A11" s="41"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1423,14 +1437,14 @@
         <v>4</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -1441,41 +1455,41 @@
       <c r="S11" s="13"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
-        <v>1</v>
-      </c>
-      <c r="B12" s="53">
-        <v>1</v>
-      </c>
-      <c r="C12" s="50">
-        <v>1</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="43"/>
+    <row r="12" spans="1:20" ht="43.5">
+      <c r="A12" s="42">
+        <v>1</v>
+      </c>
+      <c r="B12" s="43">
+        <v>1</v>
+      </c>
+      <c r="C12" s="40">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="33"/>
       <c r="H12" s="12">
         <v>5</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="15" t="s">
-        <v>10</v>
-      </c>
       <c r="M12" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="N12" s="16">
         <v>8</v>
@@ -1484,35 +1498,35 @@
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="17" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="T12" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
+    <row r="13" spans="1:20">
+      <c r="A13" s="41">
         <v>5</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="51">
         <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="44"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="34"/>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
       <c r="J13" s="14"/>
@@ -1527,26 +1541,26 @@
       <c r="S13" s="13"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
+      <c r="A14" s="41">
         <v>6</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="45">
         <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="44"/>
+        <v>43</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
       <c r="J14" s="14"/>
@@ -1561,24 +1575,26 @@
       <c r="S14" s="13"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
-        <v>1</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="50">
-        <v>1</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="46">
+    <row r="15" spans="1:20">
+      <c r="A15" s="42">
+        <v>1</v>
+      </c>
+      <c r="B15" s="59">
+        <v>3</v>
+      </c>
+      <c r="C15" s="40">
+        <v>1</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="36">
         <v>23355</v>
       </c>
       <c r="H15" s="12"/>
@@ -1595,24 +1611,26 @@
       <c r="S15" s="13"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64">
+    <row r="16" spans="1:20" ht="29.45" thickBot="1">
+      <c r="A16" s="53">
         <v>2</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66">
+      <c r="B16" s="58">
+        <v>3</v>
+      </c>
+      <c r="C16" s="55">
         <v>2</v>
       </c>
-      <c r="D16" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="47">
+      <c r="D16" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="37">
         <v>14111</v>
       </c>
       <c r="H16" s="12"/>
@@ -1629,8 +1647,8 @@
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+    <row r="17" spans="1:20" ht="29.45" thickBot="1">
+      <c r="A17" s="41"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1641,14 +1659,14 @@
         <v>6</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="15" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -1659,41 +1677,41 @@
       <c r="S17" s="13"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
-        <v>1</v>
-      </c>
-      <c r="B18" s="53">
-        <v>1</v>
-      </c>
-      <c r="C18" s="50">
-        <v>1</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="43"/>
+    <row r="18" spans="1:20" ht="29.1">
+      <c r="A18" s="42">
+        <v>1</v>
+      </c>
+      <c r="B18" s="43">
+        <v>1</v>
+      </c>
+      <c r="C18" s="40">
+        <v>1</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="33"/>
       <c r="H18" s="12">
         <v>6</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="15" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="N18" s="16">
         <v>11</v>
@@ -1702,35 +1720,35 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="17" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="T18" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
+    <row r="19" spans="1:20">
+      <c r="A19" s="41">
         <v>5</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="51">
         <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="44"/>
+        <v>35</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="34"/>
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
@@ -1745,26 +1763,26 @@
       <c r="S19" s="13"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64">
+    <row r="20" spans="1:20" ht="15" thickBot="1">
+      <c r="A20" s="53">
         <v>6</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="54">
         <v>2</v>
       </c>
-      <c r="C20" s="66">
-        <v>1</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="48"/>
+      <c r="C20" s="55">
+        <v>1</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="38"/>
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
       <c r="J20" s="14"/>
@@ -1779,24 +1797,26 @@
       <c r="S20" s="13"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="52">
-        <v>1</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="50">
-        <v>1</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="46">
+    <row r="21" spans="1:20">
+      <c r="A21" s="42">
+        <v>1</v>
+      </c>
+      <c r="B21" s="59">
+        <v>3</v>
+      </c>
+      <c r="C21" s="40">
+        <v>1</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="36">
         <v>23355</v>
       </c>
       <c r="H21" s="12"/>
@@ -1813,24 +1833,26 @@
       <c r="S21" s="13"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64">
+    <row r="22" spans="1:20" ht="29.45" thickBot="1">
+      <c r="A22" s="53">
         <v>2</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66">
+      <c r="B22" s="58">
+        <v>3</v>
+      </c>
+      <c r="C22" s="55">
         <v>2</v>
       </c>
-      <c r="D22" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="47">
+      <c r="D22" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="37">
         <v>14111</v>
       </c>
       <c r="H22" s="12"/>
@@ -1847,8 +1869,8 @@
       <c r="S22" s="13"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+    <row r="23" spans="1:20" ht="29.1">
+      <c r="A23" s="41"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1859,14 +1881,14 @@
         <v>7</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="15" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
@@ -1877,8 +1899,8 @@
       <c r="S23" s="13"/>
       <c r="T23" s="19"/>
     </row>
-    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+    <row r="24" spans="1:20" ht="29.1">
+      <c r="A24" s="41"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1889,14 +1911,14 @@
         <v>7</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="15" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -1907,8 +1929,8 @@
       <c r="S24" s="13"/>
       <c r="T24" s="19"/>
     </row>
-    <row r="25" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+    <row r="25" spans="1:20" ht="29.45" thickBot="1">
+      <c r="A25" s="41"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1919,14 +1941,14 @@
         <v>7</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="15" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
@@ -1937,41 +1959,41 @@
       <c r="S25" s="13"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
-        <v>1</v>
-      </c>
-      <c r="B26" s="53">
-        <v>1</v>
-      </c>
-      <c r="C26" s="50">
-        <v>1</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="43"/>
+    <row r="26" spans="1:20" ht="29.1">
+      <c r="A26" s="42">
+        <v>1</v>
+      </c>
+      <c r="B26" s="43">
+        <v>1</v>
+      </c>
+      <c r="C26" s="40">
+        <v>1</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="33"/>
       <c r="H26" s="12">
         <v>7</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="15" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="N26" s="16">
         <v>11</v>
@@ -1980,35 +2002,35 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="17" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="T26" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+    <row r="27" spans="1:20">
+      <c r="A27" s="41">
         <v>5</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="51">
         <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="44"/>
+        <v>35</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="34"/>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
@@ -2023,26 +2045,26 @@
       <c r="S27" s="13"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64">
+    <row r="28" spans="1:20" ht="15" thickBot="1">
+      <c r="A28" s="53">
         <v>6</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="54">
         <v>2</v>
       </c>
-      <c r="C28" s="66">
-        <v>1</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="48"/>
+      <c r="C28" s="55">
+        <v>1</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="38"/>
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
@@ -2057,24 +2079,26 @@
       <c r="S28" s="13"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="52">
-        <v>1</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="50">
-        <v>1</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="46">
+    <row r="29" spans="1:20">
+      <c r="A29" s="42">
+        <v>1</v>
+      </c>
+      <c r="B29" s="59">
+        <v>3</v>
+      </c>
+      <c r="C29" s="40">
+        <v>1</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="36">
         <v>23355</v>
       </c>
       <c r="H29" s="12"/>
@@ -2091,24 +2115,26 @@
       <c r="S29" s="13"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64">
+    <row r="30" spans="1:20" ht="29.45" thickBot="1">
+      <c r="A30" s="53">
         <v>2</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66">
+      <c r="B30" s="58">
+        <v>3</v>
+      </c>
+      <c r="C30" s="55">
         <v>2</v>
       </c>
-      <c r="D30" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="47">
+      <c r="D30" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="37">
         <v>14111</v>
       </c>
       <c r="H30" s="12"/>
@@ -2125,8 +2151,8 @@
       <c r="S30" s="13"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+    <row r="31" spans="1:20" ht="29.1">
+      <c r="A31" s="41"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2137,14 +2163,14 @@
         <v>8</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="15" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
@@ -2155,8 +2181,8 @@
       <c r="S31" s="13"/>
       <c r="T31" s="19"/>
     </row>
-    <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
+    <row r="32" spans="1:20" ht="29.1">
+      <c r="A32" s="41"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2167,14 +2193,14 @@
         <v>8</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="15" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
@@ -2185,8 +2211,8 @@
       <c r="S32" s="13"/>
       <c r="T32" s="19"/>
     </row>
-    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
+    <row r="33" spans="1:20" ht="29.1">
+      <c r="A33" s="41"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2197,14 +2223,14 @@
         <v>9</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="15" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
@@ -2215,8 +2241,8 @@
       <c r="S33" s="13"/>
       <c r="T33" s="19"/>
     </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
+    <row r="34" spans="1:20" ht="29.1">
+      <c r="A34" s="41"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2227,14 +2253,14 @@
         <v>10</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="21" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
@@ -2245,8 +2271,8 @@
       <c r="S34" s="13"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+    <row r="35" spans="1:20" ht="43.5">
+      <c r="A35" s="41"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2257,14 +2283,14 @@
         <v>11</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="21" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
@@ -2275,8 +2301,8 @@
       <c r="S35" s="13"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
+    <row r="36" spans="1:20" ht="29.1">
+      <c r="A36" s="41"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2287,14 +2313,14 @@
         <v>12</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="21" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
@@ -2305,8 +2331,8 @@
       <c r="S36" s="13"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
+    <row r="37" spans="1:20" ht="29.1">
+      <c r="A37" s="41"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2317,14 +2343,14 @@
         <v>13</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="15" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
@@ -2335,8 +2361,8 @@
       <c r="S37" s="13"/>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+    <row r="38" spans="1:20" ht="29.1">
+      <c r="A38" s="41"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2347,14 +2373,14 @@
         <v>14</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="15" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
@@ -2365,8 +2391,8 @@
       <c r="S38" s="13"/>
       <c r="T38" s="19"/>
     </row>
-    <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
+    <row r="39" spans="1:20" ht="29.1">
+      <c r="A39" s="41"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2377,14 +2403,14 @@
         <v>14</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="15" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
@@ -2395,8 +2421,8 @@
       <c r="S39" s="13"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+    <row r="40" spans="1:20" ht="29.1">
+      <c r="A40" s="41"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2407,14 +2433,14 @@
         <v>15</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="K40" s="14"/>
       <c r="L40" s="15" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
@@ -2425,8 +2451,8 @@
       <c r="S40" s="13"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+    <row r="41" spans="1:20">
+      <c r="A41" s="41"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2437,14 +2463,14 @@
         <v>16</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="15" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
@@ -2455,8 +2481,8 @@
       <c r="S41" s="13"/>
       <c r="T41" s="19"/>
     </row>
-    <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
+    <row r="42" spans="1:20" ht="43.5">
+      <c r="A42" s="41"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2467,14 +2493,14 @@
         <v>17</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="K42" s="14"/>
       <c r="L42" s="15" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
@@ -2485,8 +2511,8 @@
       <c r="S42" s="13"/>
       <c r="T42" s="19"/>
     </row>
-    <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
+    <row r="43" spans="1:20" ht="29.1">
+      <c r="A43" s="41"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2497,14 +2523,14 @@
         <v>18</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K43" s="14"/>
       <c r="L43" s="21" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
@@ -2515,8 +2541,8 @@
       <c r="S43" s="13"/>
       <c r="T43" s="19"/>
     </row>
-    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+    <row r="44" spans="1:20" ht="29.1">
+      <c r="A44" s="41"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2527,14 +2553,14 @@
         <v>19</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="K44" s="14"/>
       <c r="L44" s="15" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
@@ -2545,8 +2571,8 @@
       <c r="S44" s="13"/>
       <c r="T44" s="19"/>
     </row>
-    <row r="45" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+    <row r="45" spans="1:20" ht="29.1">
+      <c r="A45" s="41"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2557,14 +2583,14 @@
         <v>19</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="15" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
@@ -2575,8 +2601,8 @@
       <c r="S45" s="13"/>
       <c r="T45" s="19"/>
     </row>
-    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
+    <row r="46" spans="1:20" ht="29.1">
+      <c r="A46" s="41"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2587,14 +2613,14 @@
         <v>20</v>
       </c>
       <c r="I46" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="15" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
@@ -2605,8 +2631,8 @@
       <c r="S46" s="13"/>
       <c r="T46" s="19"/>
     </row>
-    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+    <row r="47" spans="1:20" ht="29.1">
+      <c r="A47" s="41"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2617,14 +2643,14 @@
         <v>20</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="15" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
@@ -2635,8 +2661,8 @@
       <c r="S47" s="13"/>
       <c r="T47" s="19"/>
     </row>
-    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
+    <row r="48" spans="1:20" ht="29.1">
+      <c r="A48" s="41"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2647,14 +2673,14 @@
         <v>20</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="15" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
@@ -2665,8 +2691,8 @@
       <c r="S48" s="13"/>
       <c r="T48" s="19"/>
     </row>
-    <row r="49" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+    <row r="49" spans="1:20" ht="29.1">
+      <c r="A49" s="41"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2677,14 +2703,14 @@
         <v>20</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="15" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
@@ -2695,27 +2721,27 @@
       <c r="S49" s="13"/>
       <c r="T49" s="19"/>
     </row>
-    <row r="50" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="64"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="49"/>
+    <row r="50" spans="1:20" ht="29.45" thickBot="1">
+      <c r="A50" s="53"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="22">
         <v>100</v>
       </c>
       <c r="I50" s="23"/>
       <c r="J50" s="24" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="K50" s="24"/>
       <c r="L50" s="25" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="N50" s="23">
         <v>11</v>
@@ -2724,97 +2750,97 @@
       <c r="P50" s="30"/>
       <c r="Q50" s="30"/>
       <c r="R50" s="25" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="S50" s="23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="T50" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G51" s="50"/>
+    <row r="51" spans="1:20">
+      <c r="G51" s="40"/>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
       <c r="Q54" s="29"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
       <c r="Q56" s="29"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="O57" s="29"/>
       <c r="P57" s="29"/>
       <c r="Q57" s="29"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="O59" s="29"/>
       <c r="P59" s="29"/>
       <c r="Q59" s="29"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="O60" s="29"/>
       <c r="P60" s="29"/>
       <c r="Q60" s="29"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="O61" s="29"/>
       <c r="P61" s="29"/>
       <c r="Q61" s="29"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="O62" s="29"/>
       <c r="P62" s="29"/>
       <c r="Q62" s="29"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="O63" s="29"/>
       <c r="P63" s="29"/>
       <c r="Q63" s="29"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="O64" s="29"/>
       <c r="P64" s="29"/>
       <c r="Q64" s="29"/>
     </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="15:17">
       <c r="O65" s="29"/>
       <c r="P65" s="29"/>
       <c r="Q65" s="29"/>
     </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="15:17">
       <c r="O66" s="29"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="15:17">
       <c r="O67" s="29"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="29"/>
